--- a/data/trans_orig/Q03B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Dificultad-trans_orig.xlsx
@@ -648,16 +648,16 @@
         <v>3.457143966962925</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>3.837662904580626</v>
+        <v>3.837662904580625</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.910806579414597</v>
+        <v>3.910806579414596</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.730756236836062</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>2.741442653231132</v>
+        <v>2.741442653231131</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>2.93898543456364</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.408292225952589</v>
+        <v>1.409703762633854</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.456180605227043</v>
+        <v>1.457442631320008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.703230538787439</v>
+        <v>1.698496459296024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.311694677597452</v>
+        <v>3.312037177648136</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.71207889655085</v>
+        <v>3.684022040793925</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.78882665788062</v>
+        <v>3.799091697415928</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.604554049894401</v>
+        <v>2.603946679776225</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.641049305461193</v>
+        <v>2.641101437632205</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.847355211842104</v>
+        <v>2.851664525194523</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.807840113219783</v>
+        <v>1.814141572122525</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.667906266466787</v>
+        <v>1.667606412032451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.918065719832585</v>
+        <v>1.917408531913063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.604206265816059</v>
+        <v>3.611357734123795</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.971754920888372</v>
+        <v>3.972733577630921</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.025314542690784</v>
+        <v>4.045111746996453</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.861409221231895</v>
+        <v>2.869841248302148</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.842772985339076</v>
+        <v>2.840956351603353</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.034108427533241</v>
+        <v>3.032455743111473</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.266307135957794</v>
+        <v>1.266307135957793</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1.409413955063097</v>
@@ -757,7 +757,7 @@
         <v>3.780366933568562</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.462731812749299</v>
+        <v>3.4627318127493</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>3.374346262892221</v>
@@ -769,7 +769,7 @@
         <v>2.499201724175663</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>2.572583757255344</v>
+        <v>2.572583757255345</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.168020989686406</v>
+        <v>1.160297080828067</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.310157568171251</v>
+        <v>1.320559673913245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.568265736455666</v>
+        <v>1.566591021685644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.64923395464547</v>
+        <v>3.655957821599299</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.340850900302842</v>
+        <v>3.334149116065296</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.255418922946158</v>
+        <v>3.266238264495093</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.402393208521737</v>
+        <v>2.412137096946072</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.404050133421045</v>
+        <v>2.406029086862999</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.480332264442329</v>
+        <v>2.489615278438187</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.385378682504438</v>
+        <v>1.373867961737919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.513379916948238</v>
+        <v>1.518731489630854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.749888364342101</v>
+        <v>1.750832775453248</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.926080542757618</v>
+        <v>3.932428925945795</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.602520420885201</v>
+        <v>3.599182794293633</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.478125195887226</v>
+        <v>3.478324936196382</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.605416273627068</v>
+        <v>2.615132631526594</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.603289138518812</v>
+        <v>2.590258611903503</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.652645146185435</v>
+        <v>2.662496006959532</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.093190126966318</v>
+        <v>1.093190126966317</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1.354122634471604</v>
@@ -863,7 +863,7 @@
         <v>1.627697920910273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.506165987420808</v>
+        <v>3.506165987420807</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3.233675149759404</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9981649284891477</v>
+        <v>1.002401674921096</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.261263310895975</v>
+        <v>1.255417721204261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.544561288130778</v>
+        <v>1.547187591652809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.355229244846172</v>
+        <v>3.326945061266632</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.092761536456829</v>
+        <v>3.09449032745313</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.960040340605171</v>
+        <v>2.957971383482846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.13540382787903</v>
+        <v>2.134075814337697</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.199917993844685</v>
+        <v>2.202653408893363</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.25793131170661</v>
+        <v>2.263110693407277</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.199259184863964</v>
+        <v>1.196099982944136</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.458496632433472</v>
+        <v>1.451576740396425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.717086261589347</v>
+        <v>1.727780217550768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.690302833478232</v>
+        <v>3.666407354085929</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.375657407785793</v>
+        <v>3.365490101744246</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.241659597256718</v>
+        <v>3.248001972600068</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.35134309830365</v>
+        <v>2.347776385917832</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.390240560767411</v>
+        <v>2.388077854723853</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.444090009364384</v>
+        <v>2.443194069096475</v>
       </c>
     </row>
     <row r="13">
@@ -966,7 +966,7 @@
         <v>1.267061938797196</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.487261973967188</v>
+        <v>1.487261973967187</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>1.597604966587409</v>
@@ -978,7 +978,7 @@
         <v>3.324352691840547</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>3.01502063568215</v>
+        <v>3.015020635682151</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>2.036470864727891</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.120460817896342</v>
+        <v>1.114132443454697</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.375227321719019</v>
+        <v>1.359515720177714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.482199506834106</v>
+        <v>1.484151723228686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.829747234758629</v>
+        <v>2.820844771987276</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.146266631427148</v>
+        <v>3.141938150309649</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.841662556289088</v>
+        <v>2.851646409170853</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.883620728145449</v>
+        <v>1.883211445615375</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.226336039606172</v>
+        <v>2.251020075200743</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.194047292138461</v>
+        <v>2.188272842645465</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.4299316686657</v>
+        <v>1.45243203453325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.633922194562657</v>
+        <v>1.615754776724802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.699267443364979</v>
+        <v>1.711939144315639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.310841275865623</v>
+        <v>3.27811869389753</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.547812798126742</v>
+        <v>3.559527436464772</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.220776294846665</v>
+        <v>3.206686431337737</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.203909605726598</v>
+        <v>2.187555497398633</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.505394703028214</v>
+        <v>2.505497893672791</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.443365433634944</v>
+        <v>2.427153548376641</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>3.507050302247247</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.457445712923879</v>
+        <v>3.45744571292388</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.417983356843319</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.201649894003121</v>
+        <v>1.197104770615074</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.399164690335782</v>
+        <v>1.404836168630281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.636776601428223</v>
+        <v>1.639865930976248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.450594253450142</v>
+        <v>3.455090324045808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.43185443690238</v>
+        <v>3.434868749098483</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.388403130695612</v>
+        <v>3.385582143847567</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.358509146135874</v>
+        <v>2.359780670513846</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.447599327540442</v>
+        <v>2.451772273788642</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.562855255321743</v>
+        <v>2.56277102265103</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.332593915131006</v>
+        <v>1.327059495227525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.507067768813492</v>
+        <v>1.509472086539978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.74334409105957</v>
+        <v>1.745189368014462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.622436137626251</v>
+        <v>3.62520346238744</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.577031487364412</v>
+        <v>3.574208303267828</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.52073929885174</v>
+        <v>3.531382507693711</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.48242032378348</v>
+        <v>2.482095895033984</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.554781995166454</v>
+        <v>2.560610297762749</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.660630277308212</v>
+        <v>2.662734543794559</v>
       </c>
     </row>
     <row r="19">
